--- a/data/progproj_income.xlsx
+++ b/data/progproj_income.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanne\Desktop\3.6 programmeer project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanne\Documents\GitHub\Homework\Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B4D71E5-AAF9-4C5D-84CA-C5D392BFAC79}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1248EC8A-9E64-4B67-8FD4-188F85CF1090}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{BA28A3D4-5E28-403E-93DA-80CC9D4F3F00}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Maryland</t>
   </si>
@@ -175,16 +175,18 @@
   </si>
   <si>
     <t>Florida</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>StateName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,11 +216,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -533,31 +533,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2510778D-BF22-4F21-87A0-29FE7B33FB0A}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1">
         <v>2015</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>2014</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>2013</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>2012</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>2011</v>
       </c>
     </row>
@@ -723,846 +726,866 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1">
-        <v>49426</v>
+        <v>75628</v>
       </c>
       <c r="C10" s="1">
-        <v>47463</v>
+        <v>71648</v>
       </c>
       <c r="D10" s="1">
-        <v>46036</v>
+        <v>67572</v>
       </c>
       <c r="E10" s="1">
-        <v>45040</v>
+        <v>66583</v>
       </c>
       <c r="F10" s="1">
-        <v>44299</v>
+        <v>63124</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1">
-        <v>51244</v>
+        <v>49426</v>
       </c>
       <c r="C11" s="1">
-        <v>49321</v>
+        <v>47463</v>
       </c>
       <c r="D11" s="1">
-        <v>47829</v>
+        <v>46036</v>
       </c>
       <c r="E11" s="1">
-        <v>47209</v>
+        <v>45040</v>
       </c>
       <c r="F11" s="1">
-        <v>46007</v>
+        <v>44299</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1">
-        <v>73486</v>
+        <v>51244</v>
       </c>
       <c r="C12" s="1">
-        <v>69592</v>
+        <v>49321</v>
       </c>
       <c r="D12" s="1">
-        <v>68020</v>
+        <v>47829</v>
       </c>
       <c r="E12" s="1">
-        <v>66259</v>
+        <v>47209</v>
       </c>
       <c r="F12" s="1">
-        <v>61821</v>
+        <v>46007</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>48275</v>
+        <v>73486</v>
       </c>
       <c r="C13" s="1">
-        <v>47861</v>
+        <v>69592</v>
       </c>
       <c r="D13" s="1">
-        <v>46783</v>
+        <v>68020</v>
       </c>
       <c r="E13" s="1">
-        <v>45489</v>
+        <v>66259</v>
       </c>
       <c r="F13" s="1">
-        <v>43341</v>
+        <v>61821</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1">
-        <v>59588</v>
+        <v>48275</v>
       </c>
       <c r="C14" s="1">
-        <v>57444</v>
+        <v>47861</v>
       </c>
       <c r="D14" s="1">
-        <v>56210</v>
+        <v>46783</v>
       </c>
       <c r="E14" s="1">
-        <v>55137</v>
+        <v>45489</v>
       </c>
       <c r="F14" s="1">
-        <v>53234</v>
+        <v>43341</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>50532</v>
+        <v>59588</v>
       </c>
       <c r="C15" s="1">
-        <v>49446</v>
+        <v>57444</v>
       </c>
       <c r="D15" s="1">
-        <v>47529</v>
+        <v>56210</v>
       </c>
       <c r="E15" s="1">
-        <v>46974</v>
+        <v>55137</v>
       </c>
       <c r="F15" s="1">
-        <v>46438</v>
+        <v>53234</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1">
-        <v>54736</v>
+        <v>50532</v>
       </c>
       <c r="C16" s="1">
-        <v>53712</v>
+        <v>49446</v>
       </c>
       <c r="D16" s="1">
-        <v>52229</v>
+        <v>47529</v>
       </c>
       <c r="E16" s="1">
-        <v>50957</v>
+        <v>46974</v>
       </c>
       <c r="F16" s="1">
-        <v>49427</v>
+        <v>46438</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1">
-        <v>53906</v>
-      </c>
-      <c r="C17" s="3">
-        <v>52504</v>
+        <v>54736</v>
+      </c>
+      <c r="C17" s="1">
+        <v>53712</v>
       </c>
       <c r="D17" s="1">
-        <v>50972</v>
+        <v>52229</v>
       </c>
       <c r="E17" s="1">
-        <v>50241</v>
+        <v>50957</v>
       </c>
       <c r="F17" s="1">
-        <v>48964</v>
+        <v>49427</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1">
-        <v>45215</v>
+        <v>53906</v>
       </c>
       <c r="C18" s="1">
-        <v>42958</v>
+        <v>52504</v>
       </c>
       <c r="D18" s="1">
-        <v>43399</v>
+        <v>50972</v>
       </c>
       <c r="E18" s="1">
-        <v>41724</v>
+        <v>50241</v>
       </c>
       <c r="F18" s="1">
-        <v>41141</v>
+        <v>48964</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1">
-        <v>45727</v>
+        <v>45215</v>
       </c>
       <c r="C19" s="1">
-        <v>44555</v>
+        <v>42958</v>
       </c>
       <c r="D19" s="1">
-        <v>44164</v>
+        <v>43399</v>
       </c>
       <c r="E19" s="1">
-        <v>42944</v>
+        <v>41724</v>
       </c>
       <c r="F19" s="1">
-        <v>41734</v>
+        <v>41141</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1">
-        <v>51494</v>
+        <v>45727</v>
       </c>
       <c r="C20" s="1">
-        <v>49462</v>
+        <v>44555</v>
       </c>
       <c r="D20" s="1">
-        <v>46974</v>
+        <v>44164</v>
       </c>
       <c r="E20" s="1">
-        <v>46709</v>
+        <v>42944</v>
       </c>
       <c r="F20" s="1">
-        <v>46033</v>
+        <v>41734</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1">
-        <v>75847</v>
+        <v>51494</v>
       </c>
       <c r="C21" s="1">
-        <v>73971</v>
+        <v>49462</v>
       </c>
       <c r="D21" s="1">
-        <v>72483</v>
+        <v>46974</v>
       </c>
       <c r="E21" s="1">
-        <v>71122</v>
+        <v>46709</v>
       </c>
       <c r="F21" s="1">
-        <v>70004</v>
+        <v>46033</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B22" s="1">
-        <v>70628</v>
+        <v>75847</v>
       </c>
       <c r="C22" s="1">
-        <v>69160</v>
+        <v>73971</v>
       </c>
       <c r="D22" s="1">
-        <v>66768</v>
+        <v>72483</v>
       </c>
       <c r="E22" s="1">
-        <v>65339</v>
+        <v>71122</v>
       </c>
       <c r="F22" s="1">
-        <v>62859</v>
+        <v>70004</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1">
-        <v>51084</v>
+        <v>70628</v>
       </c>
       <c r="C23" s="1">
-        <v>49847</v>
+        <v>69160</v>
       </c>
       <c r="D23" s="1">
-        <v>48273</v>
+        <v>66768</v>
       </c>
       <c r="E23" s="1">
-        <v>46859</v>
+        <v>65339</v>
       </c>
       <c r="F23" s="1">
-        <v>45981</v>
+        <v>62859</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1">
-        <v>63488</v>
+        <v>51084</v>
       </c>
       <c r="C24" s="1">
-        <v>61481</v>
+        <v>49847</v>
       </c>
       <c r="D24" s="1">
-        <v>60702</v>
+        <v>48273</v>
       </c>
       <c r="E24" s="1">
-        <v>58906</v>
+        <v>46859</v>
       </c>
       <c r="F24" s="1">
-        <v>56954</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1">
-        <v>40593</v>
+        <v>63488</v>
       </c>
       <c r="C25" s="1">
-        <v>39680</v>
+        <v>61481</v>
       </c>
       <c r="D25" s="1">
-        <v>37963</v>
+        <v>60702</v>
       </c>
       <c r="E25" s="1">
-        <v>37095</v>
+        <v>58906</v>
       </c>
       <c r="F25" s="1">
-        <v>36919</v>
+        <v>56954</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1">
-        <v>50238</v>
+        <v>40593</v>
       </c>
       <c r="C26" s="1">
-        <v>48363</v>
+        <v>39680</v>
       </c>
       <c r="D26" s="1">
-        <v>46931</v>
+        <v>37963</v>
       </c>
       <c r="E26" s="1">
-        <v>45321</v>
+        <v>37095</v>
       </c>
       <c r="F26" s="1">
-        <v>45247</v>
+        <v>36919</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1">
-        <v>49509</v>
+        <v>50238</v>
       </c>
       <c r="C27" s="1">
-        <v>46328</v>
+        <v>48363</v>
       </c>
       <c r="D27" s="1">
-        <v>46972</v>
+        <v>46931</v>
       </c>
       <c r="E27" s="1">
-        <v>45076</v>
+        <v>45321</v>
       </c>
       <c r="F27" s="1">
-        <v>44222</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
-        <v>54996</v>
+        <v>49509</v>
       </c>
       <c r="C28" s="1">
-        <v>52686</v>
+        <v>46328</v>
       </c>
       <c r="D28" s="1">
-        <v>51440</v>
+        <v>46972</v>
       </c>
       <c r="E28" s="1">
-        <v>50723</v>
+        <v>45076</v>
       </c>
       <c r="F28" s="1">
-        <v>50296</v>
+        <v>44222</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1">
-        <v>52431</v>
+        <v>54996</v>
       </c>
       <c r="C29" s="1">
-        <v>51450</v>
+        <v>52686</v>
       </c>
       <c r="D29" s="1">
-        <v>51230</v>
+        <v>51440</v>
       </c>
       <c r="E29" s="1">
-        <v>49760</v>
+        <v>50723</v>
       </c>
       <c r="F29" s="1">
-        <v>48927</v>
+        <v>50296</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>70303</v>
+        <v>52431</v>
       </c>
       <c r="C30" s="1">
-        <v>66532</v>
+        <v>51450</v>
       </c>
       <c r="D30" s="1">
-        <v>64230</v>
+        <v>51230</v>
       </c>
       <c r="E30" s="1">
-        <v>63280</v>
+        <v>49760</v>
       </c>
       <c r="F30" s="1">
-        <v>62647</v>
+        <v>48927</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1">
-        <v>72222</v>
+        <v>70303</v>
       </c>
       <c r="C31" s="1">
-        <v>71919</v>
+        <v>66532</v>
       </c>
       <c r="D31" s="1">
-        <v>70165</v>
+        <v>64230</v>
       </c>
       <c r="E31" s="1">
-        <v>69667</v>
+        <v>63280</v>
       </c>
       <c r="F31" s="1">
-        <v>67458</v>
+        <v>62647</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B32" s="1">
-        <v>45382</v>
+        <v>72222</v>
       </c>
       <c r="C32" s="1">
-        <v>44803</v>
+        <v>71919</v>
       </c>
       <c r="D32" s="1">
-        <v>43872</v>
+        <v>70165</v>
       </c>
       <c r="E32" s="1">
-        <v>42558</v>
+        <v>69667</v>
       </c>
       <c r="F32" s="1">
-        <v>41963</v>
+        <v>67458</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B33" s="1">
-        <v>60850</v>
-      </c>
-      <c r="C33" s="2">
-        <v>58878</v>
+        <v>45382</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44803</v>
       </c>
       <c r="D33" s="1">
-        <v>57369</v>
+        <v>43872</v>
       </c>
       <c r="E33" s="1">
-        <v>56448</v>
+        <v>42558</v>
       </c>
       <c r="F33" s="1">
-        <v>55246</v>
+        <v>41963</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B34" s="1">
-        <v>47830</v>
+        <v>60850</v>
       </c>
       <c r="C34" s="1">
-        <v>46556</v>
+        <v>58878</v>
       </c>
       <c r="D34" s="1">
-        <v>45906</v>
+        <v>57369</v>
       </c>
       <c r="E34" s="1">
-        <v>45150</v>
+        <v>56448</v>
       </c>
       <c r="F34" s="1">
-        <v>43916</v>
+        <v>55246</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1">
-        <v>60557</v>
+        <v>47830</v>
       </c>
       <c r="C35" s="1">
-        <v>59029</v>
+        <v>46556</v>
       </c>
       <c r="D35" s="1">
-        <v>55759</v>
+        <v>45906</v>
       </c>
       <c r="E35" s="1">
-        <v>53585</v>
+        <v>45150</v>
       </c>
       <c r="F35" s="1">
-        <v>51704</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1">
-        <v>51075</v>
+        <v>60557</v>
       </c>
       <c r="C36" s="1">
-        <v>49308</v>
+        <v>59029</v>
       </c>
       <c r="D36" s="1">
-        <v>48081</v>
+        <v>55759</v>
       </c>
       <c r="E36" s="1">
-        <v>46829</v>
+        <v>53585</v>
       </c>
       <c r="F36" s="1">
-        <v>45749</v>
+        <v>51704</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1">
-        <v>48568</v>
+        <v>51075</v>
       </c>
       <c r="C37" s="1">
-        <v>47529</v>
+        <v>49308</v>
       </c>
       <c r="D37" s="1">
-        <v>45690</v>
+        <v>48081</v>
       </c>
       <c r="E37" s="1">
-        <v>44312</v>
+        <v>46829</v>
       </c>
       <c r="F37" s="1">
-        <v>43225</v>
+        <v>45749</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>54148</v>
+        <v>48568</v>
       </c>
       <c r="C38" s="1">
-        <v>51075</v>
+        <v>47529</v>
       </c>
       <c r="D38" s="1">
-        <v>50251</v>
+        <v>45690</v>
       </c>
       <c r="E38" s="1">
-        <v>49161</v>
+        <v>44312</v>
       </c>
       <c r="F38" s="1">
-        <v>46816</v>
+        <v>43225</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B39" s="1">
-        <v>55702</v>
+        <v>54148</v>
       </c>
       <c r="C39" s="1">
-        <v>53234</v>
+        <v>51075</v>
       </c>
       <c r="D39" s="1">
-        <v>52007</v>
+        <v>50251</v>
       </c>
       <c r="E39" s="1">
-        <v>51230</v>
+        <v>49161</v>
       </c>
       <c r="F39" s="1">
-        <v>50228</v>
+        <v>46816</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B40" s="1">
-        <v>58073</v>
+        <v>55702</v>
       </c>
       <c r="C40" s="1">
-        <v>54891</v>
+        <v>53234</v>
       </c>
       <c r="D40" s="1">
-        <v>55902</v>
+        <v>52007</v>
       </c>
       <c r="E40" s="1">
-        <v>54554</v>
+        <v>51230</v>
       </c>
       <c r="F40" s="1">
-        <v>53636</v>
+        <v>50228</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B41" s="1">
-        <v>47238</v>
+        <v>58073</v>
       </c>
       <c r="C41" s="1">
-        <v>45238</v>
+        <v>54891</v>
       </c>
       <c r="D41" s="1">
-        <v>44163</v>
+        <v>55902</v>
       </c>
       <c r="E41" s="1">
-        <v>43107</v>
+        <v>54554</v>
       </c>
       <c r="F41" s="1">
-        <v>42367</v>
+        <v>53636</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>53017</v>
+        <v>47238</v>
       </c>
       <c r="C42" s="1">
-        <v>50979</v>
+        <v>45238</v>
       </c>
       <c r="D42" s="1">
-        <v>48947</v>
+        <v>44163</v>
       </c>
       <c r="E42" s="1">
-        <v>48362</v>
+        <v>43107</v>
       </c>
       <c r="F42" s="1">
-        <v>48321</v>
+        <v>42367</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B43" s="1">
-        <v>47275</v>
+        <v>53017</v>
       </c>
       <c r="C43" s="1">
-        <v>44361</v>
+        <v>50979</v>
       </c>
       <c r="D43" s="1">
-        <v>44297</v>
+        <v>48947</v>
       </c>
       <c r="E43" s="1">
-        <v>42764</v>
+        <v>48362</v>
       </c>
       <c r="F43" s="1">
-        <v>41693</v>
+        <v>48321</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1">
-        <v>55653</v>
+        <v>47275</v>
       </c>
       <c r="C44" s="1">
-        <v>53035</v>
+        <v>44361</v>
       </c>
       <c r="D44" s="1">
-        <v>51704</v>
+        <v>44297</v>
       </c>
       <c r="E44" s="1">
-        <v>50740</v>
+        <v>42764</v>
       </c>
       <c r="F44" s="1">
-        <v>49392</v>
+        <v>41693</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B45" s="1">
-        <v>62912</v>
+        <v>55653</v>
       </c>
       <c r="C45" s="1">
-        <v>60922</v>
+        <v>53035</v>
       </c>
       <c r="D45" s="1">
-        <v>59770</v>
+        <v>51704</v>
       </c>
       <c r="E45" s="1">
-        <v>57049</v>
+        <v>50740</v>
       </c>
       <c r="F45" s="1">
-        <v>55869</v>
+        <v>49392</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B46" s="1">
-        <v>56990</v>
+        <v>62912</v>
       </c>
       <c r="C46" s="1">
-        <v>54166</v>
+        <v>60922</v>
       </c>
       <c r="D46" s="1">
-        <v>52578</v>
+        <v>59770</v>
       </c>
       <c r="E46" s="1">
-        <v>52977</v>
+        <v>57049</v>
       </c>
       <c r="F46" s="1">
-        <v>52776</v>
+        <v>55869</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B47" s="1">
-        <v>66262</v>
+        <v>56990</v>
       </c>
       <c r="C47" s="1">
-        <v>64902</v>
+        <v>54166</v>
       </c>
       <c r="D47" s="1">
-        <v>62666</v>
+        <v>52578</v>
       </c>
       <c r="E47" s="1">
-        <v>61741</v>
+        <v>52977</v>
       </c>
       <c r="F47" s="1">
-        <v>61882</v>
+        <v>52776</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B48" s="1">
-        <v>64129</v>
+        <v>66262</v>
       </c>
       <c r="C48" s="1">
-        <v>61366</v>
+        <v>64902</v>
       </c>
       <c r="D48" s="1">
-        <v>58405</v>
+        <v>62666</v>
       </c>
       <c r="E48" s="1">
-        <v>57573</v>
+        <v>61741</v>
       </c>
       <c r="F48" s="1">
-        <v>56835</v>
+        <v>61882</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1">
-        <v>42019</v>
+        <v>64129</v>
       </c>
       <c r="C49" s="1">
-        <v>41059</v>
+        <v>61366</v>
       </c>
       <c r="D49" s="1">
-        <v>41253</v>
+        <v>58405</v>
       </c>
       <c r="E49" s="1">
-        <v>40196</v>
+        <v>57573</v>
       </c>
       <c r="F49" s="1">
-        <v>38482</v>
+        <v>56835</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1">
-        <v>55638</v>
+        <v>42019</v>
       </c>
       <c r="C50" s="1">
-        <v>52622</v>
+        <v>41059</v>
       </c>
       <c r="D50" s="1">
-        <v>51467</v>
+        <v>41253</v>
       </c>
       <c r="E50" s="1">
-        <v>51059</v>
+        <v>40196</v>
       </c>
       <c r="F50" s="1">
-        <v>50395</v>
+        <v>38482</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="1">
+        <v>55638</v>
+      </c>
+      <c r="C51" s="1">
+        <v>52622</v>
+      </c>
+      <c r="D51" s="1">
+        <v>51467</v>
+      </c>
+      <c r="E51" s="1">
+        <v>51059</v>
+      </c>
+      <c r="F51" s="1">
+        <v>50395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B52" s="1">
         <v>60214</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C52" s="1">
         <v>57055</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D52" s="1">
         <v>58752</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E52" s="1">
         <v>54901</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F52" s="1">
         <v>56322</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F51">
+  <sortState ref="A2:F52">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
